--- a/biology/Zoologie/Gobemouche_olivâtre/Gobemouche_olivâtre.xlsx
+++ b/biology/Zoologie/Gobemouche_olivâtre/Gobemouche_olivâtre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gobemouche_oliv%C3%A2tre</t>
+          <t>Gobemouche_olivâtre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Muscicapa olivascens
 Le Gobemouche olivâtre (Muscicapa olivascens) est une espèce de passereau de la famille des Muscicapidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gobemouche_oliv%C3%A2tre</t>
+          <t>Gobemouche_olivâtre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il peuple le Cameroun, la République centrafricaine, la République du Congo, la République démocratique du Congo, la Côte d'Ivoire, le Gabon, le Ghana, la Guinée, la Guinée équatoriale, le Liberia, le Nigeria et le Sierra Leone.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gobemouche_oliv%C3%A2tre</t>
+          <t>Gobemouche_olivâtre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit dans les forêts humides tropicales et subtropicales de basse altitude et les marais tropicaux et subtropicaux.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gobemouche_oliv%C3%A2tre</t>
+          <t>Gobemouche_olivâtre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, le Gobemouche olivâtre est représenté par deux sous-espèces :
 Muscicapa olivascens nimbae Colston &amp; Curry-Lindahl, 1986 ;
